--- a/biology/Zoologie/Australosyodon/Australosyodon.xlsx
+++ b/biology/Zoologie/Australosyodon/Australosyodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Australosyodon nyaphuli
 Australosyodon est un genre éteint de reptiles carnivores de l'ordre des thérapsides et du sous-ordre des dinocéphales. Il appartient à la famille des Anteosauridae et à la sous-famille des Syodontinae. Il a vécu durant le Permien moyen, au Guadalupien, soit il y a environ entre 273,01 à 259,51 millions d'années.
-Son fossile est constitué d'un crâne quasi complet, en partie écrasé, avec sa mandibule. Il a été découvert en Afrique du Sud dans le désert du Karoo[1].
-L'espèce type et seule espèce, Australosyodon nyaphuli, a été décrite par Bruce Sidney Rubidge (d) en 1994[1].
+Son fossile est constitué d'un crâne quasi complet, en partie écrasé, avec sa mandibule. Il a été découvert en Afrique du Sud dans le désert du Karoo.
+L'espèce type et seule espèce, Australosyodon nyaphuli, a été décrite par Bruce Sidney Rubidge (d) en 1994.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom générique est construit du mot « australo » « du Sud »  et de syodon composé du grec ancien « choíros », « porc » et de « dónti » « avec des dents » pour signifier un animal « austral à dents de porc ». Ce nom rappelle les canines saillantes de l'animal qui ressemblent à des canines inférieures du sanglier. Le nom spécifique nyaphuli rend hommage à John Nyaphuli, qui a découvert le fossile.
 </t>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australosyodon est un antéosauridé de taille moyenne avec un crâne haut, mais assez étroit, de 27 centimètres de long, beaucoup plus court que ceux des antéosaurinés qui peuvent atteindre jusqu'à 80 centimètres[2].
-Il est proche du genre Syodon, avec qui il est aujourd'hui classé en groupe frère. La section des canines est une des caractéristiques qui distinguent ces deux genres : cette section est ovoïde chez Australosyodon tandis qu'elle est circulaire chez Syodon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australosyodon est un antéosauridé de taille moyenne avec un crâne haut, mais assez étroit, de 27 centimètres de long, beaucoup plus court que ceux des antéosaurinés qui peuvent atteindre jusqu'à 80 centimètres.
+Il est proche du genre Syodon, avec qui il est aujourd'hui classé en groupe frère. La section des canines est une des caractéristiques qui distinguent ces deux genres : cette section est ovoïde chez Australosyodon tandis qu'elle est circulaire chez Syodon.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique de J. C. Cisneros et al.[2] aboutit au cladogramme suivant qui montre la position d'Australosyodon :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique de J. C. Cisneros et al. aboutit au cladogramme suivant qui montre la position d'Australosyodon :
 </t>
         </is>
       </c>
